--- a/New highs and lows 2.xlsx
+++ b/New highs and lows 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\Growth-stock-high-volume-short\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/Growth-stock-high-volume-short/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC2D37A4-6715-408D-980D-AC7E9A201AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{AC2D37A4-6715-408D-980D-AC7E9A201AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC1065ED-FB0D-45AB-BFA5-0A78C43D3004}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15885" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Tusental" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -204,7 +204,7 @@
   <volType type="realTimeData">
     <main first="ontrade.quotes">
       <tp>
-        <v>339</v>
+        <v>326.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -212,7 +212,7 @@
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>342.8</v>
+        <v>328.04999999999995</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -220,7 +220,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>1180</v>
+        <v>1051</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -228,7 +228,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>619.6</v>
+        <v>586.40000000000009</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -236,7 +236,7 @@
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>120.75</v>
+        <v>112</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -244,7 +244,7 @@
         <tr r="K7" s="1"/>
       </tp>
       <tp>
-        <v>614.6</v>
+        <v>582.79999999999995</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -252,7 +252,7 @@
         <tr r="K14" s="1"/>
       </tp>
       <tp>
-        <v>121.75</v>
+        <v>112.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -260,7 +260,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>279.2</v>
+        <v>264.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -268,7 +268,7 @@
         <tr r="K15" s="1"/>
       </tp>
       <tp>
-        <v>280.39999999999998</v>
+        <v>265.60000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -276,7 +276,7 @@
         <tr r="G15" s="1"/>
       </tp>
       <tp>
-        <v>114.35</v>
+        <v>103.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -284,7 +284,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>111.35</v>
+        <v>104</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -292,7 +292,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>61.9</v>
+        <v>60.03</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -300,7 +300,7 @@
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>61.56</v>
+        <v>57.52</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -308,7 +308,7 @@
         <tr r="K13" s="1"/>
       </tp>
       <tp>
-        <v>66</v>
+        <v>61.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -316,7 +316,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>103.2</v>
+        <v>100.57499999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -324,7 +324,7 @@
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>300.25</v>
+        <v>290.42500000000001</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -332,7 +332,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>102.64999999999999</v>
+        <v>99.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -340,7 +340,7 @@
         <tr r="K4" s="1"/>
       </tp>
       <tp>
-        <v>296.85000000000002</v>
+        <v>289.25</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -348,7 +348,7 @@
         <tr r="K6" s="1"/>
       </tp>
       <tp>
-        <v>1163</v>
+        <v>1058</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -356,7 +356,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>177.7</v>
+        <v>177</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -364,7 +364,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>474.5</v>
+        <v>443.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -372,7 +372,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>1284.8</v>
+        <v>1184.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -380,7 +380,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>152.65</v>
+        <v>145.47500000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -388,7 +388,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>151.35000000000002</v>
+        <v>144.30000000000001</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -396,7 +396,7 @@
         <tr r="K10" s="1"/>
       </tp>
       <tp>
-        <v>51.8</v>
+        <v>49</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -404,7 +404,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>294.2</v>
+        <v>280.60000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -412,7 +412,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>49</v>
+        <v>49.25</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -420,7 +420,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>47.74</v>
+        <v>47.46</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -428,7 +428,7 @@
         <tr r="K11" s="1"/>
       </tp>
       <tp>
-        <v>302.39999999999998</v>
+        <v>301.7</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -436,7 +436,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>348.3</v>
+        <v>344.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -444,7 +444,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>127</v>
+        <v>121.75</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -452,7 +452,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>653.20000000000005</v>
+        <v>621.79999999999995</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -460,7 +460,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>161.85000000000002</v>
+        <v>154</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -468,7 +468,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>437.6</v>
+        <v>429.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -476,7 +476,7 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>1182.4000000000001</v>
+        <v>1154.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -484,7 +484,7 @@
         <tr r="K3" s="1"/>
       </tp>
       <tp>
-        <v>1184.8</v>
+        <v>1183.4000000000001</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -492,7 +492,7 @@
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>443.6</v>
+        <v>431.45000000000005</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -500,7 +500,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>353</v>
+        <v>342.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -508,7 +508,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>50.949999999999996</v>
+        <v>49.32</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -516,7 +516,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>174.8</v>
+        <v>177</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -524,7 +524,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>308.25</v>
+        <v>300.25</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -532,7 +532,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>67.2</v>
+        <v>62.620000000000005</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -540,7 +540,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>653.20000000000005</v>
+        <v>619.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -548,7 +548,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>177</v>
+        <v>171.7</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -556,7 +556,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>162.15</v>
+        <v>152.65</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -564,7 +564,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>171.2</v>
+        <v>170.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -572,7 +572,7 @@
         <tr r="K12" s="1"/>
       </tp>
       <tp>
-        <v>1240</v>
+        <v>1200</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -580,7 +580,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>296.2</v>
+        <v>280.39999999999998</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -588,7 +588,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>1042</v>
+        <v>892</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -596,7 +596,7 @@
         <tr r="K9" s="1"/>
       </tp>
       <tp>
-        <v>1051</v>
+        <v>893.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -604,7 +604,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>127.64999999999999</v>
+        <v>121.75</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -612,7 +612,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>464.5</v>
+        <v>455</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -625,7 +625,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -924,18 +924,18 @@
   <dimension ref="C2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -967,78 +967,78 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1254.8</v>
+        <v>1210</v>
       </c>
       <c r="E3">
-        <v>1232.4000000000001</v>
+        <v>1180.4000000000001</v>
       </c>
       <c r="F3">
-        <v>182918</v>
+        <v>73241</v>
       </c>
       <c r="G3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"mid")</f>
-        <v>1184.8</v>
+        <v>1183.4000000000001</v>
       </c>
       <c r="H3" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C3,"open")/RTD("ontrade.quotes",,"SSE",C3,"lastvalidprevclose")-1</f>
-        <v>-3.4869240348692321E-2</v>
+        <v>1.282916948008106E-2</v>
       </c>
       <c r="I3" s="1">
         <f>(D3-E3)/AVERAGE(D3:E3)</f>
-        <v>1.8012222579607481E-2</v>
+        <v>2.4765729585006616E-2</v>
       </c>
       <c r="J3" s="3">
-        <v>152380.4</v>
+        <v>132105.79999999999</v>
       </c>
       <c r="K3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"low")</f>
-        <v>1182.4000000000001</v>
+        <v>1154.2</v>
       </c>
       <c r="L3" t="str">
         <f>IF(G3&lt;E3,"Lows",IF(G3&gt;D3,"Highs",""))</f>
-        <v>Lows</v>
+        <v/>
       </c>
       <c r="M3" t="str">
         <f>IF(H3&lt;=0,IF(I3&lt;0.02,IF(F3&gt;1.5*J3,IF(K3&lt;E3,-1,""),""),""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>111.35</v>
+        <v>104.5</v>
       </c>
       <c r="E4">
-        <v>109.1</v>
+        <v>100.8</v>
       </c>
       <c r="F4">
-        <v>511631</v>
+        <v>275779</v>
       </c>
       <c r="G4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"mid")</f>
-        <v>103.2</v>
+        <v>100.57499999999999</v>
       </c>
       <c r="H4" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"open")/RTD("ontrade.quotes",,"SSE",C4,"lastvalidprevclose")-1</f>
-        <v>-2.6235242675994752E-2</v>
+        <v>7.7519379844961378E-3</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I15" si="0">(D4-E4)/AVERAGE(D4:E4)</f>
-        <v>2.0412792016330235E-2</v>
+        <v>3.6044812469556771E-2</v>
       </c>
       <c r="J4" s="3">
-        <v>195575.05</v>
+        <v>192397.4</v>
       </c>
       <c r="K4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"low")</f>
-        <v>102.64999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" ref="L4:L15" si="1">IF(G4&lt;E4,"Lows",IF(G4&gt;D4,"Highs",""))</f>
@@ -1049,160 +1049,160 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E5">
-        <v>344.8</v>
+        <v>338.5</v>
       </c>
       <c r="F5">
-        <v>63045</v>
+        <v>38741</v>
       </c>
       <c r="G5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"mid")</f>
-        <v>342.8</v>
+        <v>328.04999999999995</v>
       </c>
       <c r="H5" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C5,"open")/RTD("ontrade.quotes",,"SSE",C5,"lastvalidprevclose")-1</f>
-        <v>-1.3314447592067902E-2</v>
+        <v>4.6674445740955139E-3</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>1.2107235514557477E-2</v>
+        <v>1.9019751280175568E-2</v>
       </c>
       <c r="J5" s="3">
-        <v>16673.2</v>
+        <v>16456.75</v>
       </c>
       <c r="K5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"low")</f>
-        <v>339</v>
+        <v>326.2</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
         <v>Lows</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="str">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v/>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E6">
-        <v>300.60000000000002</v>
+        <v>296.35000000000002</v>
       </c>
       <c r="F6">
-        <v>113453</v>
+        <v>37220</v>
       </c>
       <c r="G6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"mid")</f>
-        <v>300.25</v>
+        <v>290.42500000000001</v>
       </c>
       <c r="H6" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C6,"open")/RTD("ontrade.quotes",,"SSE",C6,"lastvalidprevclose")-1</f>
-        <v>-1.8978102189781132E-2</v>
+        <v>4.8293089092421582E-3</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>1.4531043593130703E-2</v>
+        <v>1.8885267819837809E-2</v>
       </c>
       <c r="J6" s="3">
-        <v>36781.800000000003</v>
+        <v>37646.75</v>
       </c>
       <c r="K6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"low")</f>
-        <v>296.85000000000002</v>
+        <v>289.25</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
         <v>Lows</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="str">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v/>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7">
-        <v>127</v>
+        <v>122.75</v>
       </c>
       <c r="E7">
-        <v>124.5</v>
+        <v>117.7</v>
       </c>
       <c r="F7">
-        <v>493722</v>
+        <v>236029</v>
       </c>
       <c r="G7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"mid")</f>
-        <v>121.75</v>
+        <v>112.3</v>
       </c>
       <c r="H7" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C7,"open")/RTD("ontrade.quotes",,"SSE",C7,"lastvalidprevclose")-1</f>
-        <v>-5.0920485703094265E-3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>1.9880715705765408E-2</v>
+        <v>4.2004574755666435E-2</v>
       </c>
       <c r="J7" s="3">
-        <v>80393.649999999994</v>
+        <v>80749.2</v>
       </c>
       <c r="K7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"low")</f>
-        <v>120.75</v>
+        <v>112</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
         <v>Lows</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="str">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v/>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>472.1</v>
+        <v>455.3</v>
       </c>
       <c r="E8">
-        <v>462</v>
+        <v>438.8</v>
       </c>
       <c r="F8">
-        <v>172103</v>
+        <v>81141</v>
       </c>
       <c r="G8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"mid")</f>
-        <v>443.6</v>
+        <v>431.45000000000005</v>
       </c>
       <c r="H8" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C8,"open")/RTD("ontrade.quotes",,"SSE",C8,"lastvalidprevclose")-1</f>
-        <v>-2.1074815595363505E-2</v>
+        <v>2.5698827772768107E-2</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>2.1625093673054326E-2</v>
+        <v>3.6908623196510455E-2</v>
       </c>
       <c r="J8" s="3">
-        <v>46512.25</v>
+        <v>46995.3</v>
       </c>
       <c r="K8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"low")</f>
-        <v>437.6</v>
+        <v>429.3</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
@@ -1213,37 +1213,37 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>1169</v>
+        <v>1061</v>
       </c>
       <c r="E9">
-        <v>1133</v>
+        <v>1001</v>
       </c>
       <c r="F9">
-        <v>8031</v>
+        <v>9529</v>
       </c>
       <c r="G9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"mid")</f>
-        <v>1051</v>
+        <v>893.5</v>
       </c>
       <c r="H9" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C9,"open")/RTD("ontrade.quotes",,"SSE",C9,"lastvalidprevclose")-1</f>
-        <v>-1.4406779661017E-2</v>
+        <v>6.6603235014273121E-3</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>3.1277150304083408E-2</v>
+        <v>5.8195926285160036E-2</v>
       </c>
       <c r="J9" s="3">
-        <v>2093.5500000000002</v>
+        <v>2141.9</v>
       </c>
       <c r="K9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"low")</f>
-        <v>1042</v>
+        <v>892</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
@@ -1254,37 +1254,37 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10">
-        <v>161.85</v>
+        <v>156.94999999999999</v>
       </c>
       <c r="E10">
-        <v>157.1</v>
+        <v>153.5</v>
       </c>
       <c r="F10">
-        <v>27456</v>
+        <v>20652</v>
       </c>
       <c r="G10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"mid")</f>
-        <v>152.65</v>
+        <v>145.47500000000002</v>
       </c>
       <c r="H10" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C10,"open")/RTD("ontrade.quotes",,"SSE",C10,"lastvalidprevclose")-1</f>
-        <v>-1.8501387604069608E-3</v>
+        <v>8.8437602358335532E-3</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>2.9785232795108953E-2</v>
+        <v>2.2225801256240869E-2</v>
       </c>
       <c r="J10" s="3">
-        <v>17226.55</v>
+        <v>17395.849999999999</v>
       </c>
       <c r="K10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"low")</f>
-        <v>151.35000000000002</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
@@ -1295,119 +1295,119 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>49.54</v>
       </c>
       <c r="E11">
-        <v>50.1</v>
+        <v>48.2</v>
       </c>
       <c r="F11">
-        <v>275305</v>
+        <v>67564</v>
       </c>
       <c r="G11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"mid")</f>
-        <v>49</v>
+        <v>49.25</v>
       </c>
       <c r="H11" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C11,"open")/RTD("ontrade.quotes",,"SSE",C11,"lastvalidprevclose")-1</f>
-        <v>-1.6409266409266432E-2</v>
+        <v>6.5306122448980375E-3</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>1.7804154302670596E-2</v>
+        <v>2.7419684878248335E-2</v>
       </c>
       <c r="J11" s="3">
-        <v>77411.899999999994</v>
+        <v>72692</v>
       </c>
       <c r="K11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"low")</f>
-        <v>47.74</v>
+        <v>47.46</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
-      </c>
-      <c r="M11">
+        <v/>
+      </c>
+      <c r="M11" t="str">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v/>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>174.8</v>
+        <v>178.4</v>
       </c>
       <c r="E12">
-        <v>171.2</v>
+        <v>174.6</v>
       </c>
       <c r="F12">
-        <v>15004</v>
+        <v>2373</v>
       </c>
       <c r="G12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"mid")</f>
-        <v>177</v>
+        <v>171.7</v>
       </c>
       <c r="H12" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C12,"open")/RTD("ontrade.quotes",,"SSE",C12,"lastvalidprevclose")-1</f>
-        <v>-1.63196398424309E-2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>2.0809248554913427E-2</v>
+        <v>2.1529745042492981E-2</v>
       </c>
       <c r="J12" s="3">
-        <v>9214.85</v>
+        <v>7144.1</v>
       </c>
       <c r="K12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"low")</f>
-        <v>171.2</v>
+        <v>170.8</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13">
-        <v>68.38</v>
+        <v>63</v>
       </c>
       <c r="E13">
-        <v>67</v>
+        <v>60.7</v>
       </c>
       <c r="F13">
-        <v>1579267</v>
+        <v>1077632</v>
       </c>
       <c r="G13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"mid")</f>
-        <v>61.9</v>
+        <v>60.03</v>
       </c>
       <c r="H13" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C13,"open")/RTD("ontrade.quotes",,"SSE",C13,"lastvalidprevclose")-1</f>
-        <v>1.8181818181818299E-2</v>
+        <v>1.1631663974152051E-2</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>2.038705864972663E-2</v>
+        <v>3.7186742118027437E-2</v>
       </c>
       <c r="J13" s="3">
-        <v>318930.55</v>
+        <v>314147.55</v>
       </c>
       <c r="K13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"low")</f>
-        <v>61.56</v>
+        <v>57.52</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
@@ -1418,78 +1418,78 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14">
-        <v>653.20000000000005</v>
+        <v>622.6</v>
       </c>
       <c r="E14">
-        <v>642.4</v>
+        <v>607.79999999999995</v>
       </c>
       <c r="F14">
-        <v>14988</v>
+        <v>6169</v>
       </c>
       <c r="G14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"mid")</f>
-        <v>619.6</v>
+        <v>586.40000000000009</v>
       </c>
       <c r="H14" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C14,"open")/RTD("ontrade.quotes",,"SSE",C14,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>3.5506778566816166E-3</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>1.6671812287743237E-2</v>
+        <v>2.4057217165149653E-2</v>
       </c>
       <c r="J14" s="3">
-        <v>5111.7</v>
+        <v>4931.7</v>
       </c>
       <c r="K14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"low")</f>
-        <v>614.6</v>
+        <v>582.79999999999995</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
         <v>Lows</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="str">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v/>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15">
-        <v>294.2</v>
+        <v>284</v>
       </c>
       <c r="E15">
-        <v>287.8</v>
+        <v>277</v>
       </c>
       <c r="F15">
-        <v>24603</v>
+        <v>30818</v>
       </c>
       <c r="G15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"mid")</f>
-        <v>280.39999999999998</v>
+        <v>265.60000000000002</v>
       </c>
       <c r="H15" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C15,"open")/RTD("ontrade.quotes",,"SSE",C15,"lastvalidprevclose")-1</f>
-        <v>-6.7521944632005226E-3</v>
+        <v>7.1326676176908244E-4</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>2.1993127147766245E-2</v>
+        <v>2.4955436720142603E-2</v>
       </c>
       <c r="J15" s="3">
-        <v>16203</v>
+        <v>15580.35</v>
       </c>
       <c r="K15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"low")</f>
-        <v>279.2</v>
+        <v>264.2</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
